--- a/data/input.xlsx
+++ b/data/input.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16695" windowHeight="3930" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ValidLogin" sheetId="1" r:id="rId1"/>
     <sheet name="InvalidLogin" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:F5"/>
 </workbook>
 </file>
 
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -203,6 +204,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -238,6 +256,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -416,7 +451,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/data/input.xlsx
+++ b/data/input.xlsx
@@ -9,14 +9,14 @@
   <sheets>
     <sheet name="ValidLogin" sheetId="1" r:id="rId1"/>
     <sheet name="InvalidLogin" sheetId="2" r:id="rId2"/>
+    <sheet name="CreateUser" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:F5"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
   <si>
     <t>UserName</t>
   </si>
@@ -49,13 +49,70 @@
   </si>
   <si>
     <t>damager</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Rajavardhan</t>
+  </si>
+  <si>
+    <t>Reddy</t>
+  </si>
+  <si>
+    <t>rajavardhanreddy22@gmail.com</t>
+  </si>
+  <si>
+    <t>reddy444</t>
+  </si>
+  <si>
+    <t>Reddy7353</t>
+  </si>
+  <si>
+    <t>Rakesh</t>
+  </si>
+  <si>
+    <t>CK</t>
+  </si>
+  <si>
+    <t>rakeshck81@gmail.com</t>
+  </si>
+  <si>
+    <t>rakesh123</t>
+  </si>
+  <si>
+    <t>Rakesh123</t>
+  </si>
+  <si>
+    <t>Manjunathan</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>bmanjuba247@gmail.com</t>
+  </si>
+  <si>
+    <t>manju123</t>
+  </si>
+  <si>
+    <t>Manju456</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,6 +124,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -104,15 +169,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -495,7 +564,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,4 +629,100 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+</worksheet>
 </file>
--- a/data/input.xlsx
+++ b/data/input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16695" windowHeight="3930" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16470" windowHeight="3930" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ValidLogin" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="CreateUser" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:G6"/>
 </workbook>
 </file>
 
@@ -563,7 +564,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -635,7 +636,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>

--- a/data/input.xlsx
+++ b/data/input.xlsx
@@ -12,7 +12,6 @@
     <sheet name="CreateUser" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:G6"/>
 </workbook>
 </file>
 
@@ -94,19 +93,19 @@
     <t>Rakesh123</t>
   </si>
   <si>
-    <t>Manjunathan</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>bmanjuba247@gmail.com</t>
-  </si>
-  <si>
-    <t>manju123</t>
-  </si>
-  <si>
-    <t>Manju456</t>
+    <t>Patil</t>
+  </si>
+  <si>
+    <t>Vinod J</t>
+  </si>
+  <si>
+    <t>vinodpatilr777@gmail.com</t>
+  </si>
+  <si>
+    <t>vinod123</t>
+  </si>
+  <si>
+    <t>Vinod123</t>
   </si>
 </sst>
 </file>
@@ -637,7 +636,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -702,10 +701,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
         <v>25</v>
-      </c>
-      <c r="B4" t="s">
-        <v>26</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>27</v>
